--- a/documents/digital/表结构说明/oms_dealer.xlsx
+++ b/documents/digital/表结构说明/oms_dealer.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\digital-data-syn\documents\digital\表结构说明\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="oms_dealer" sheetId="1" r:id="rId2"/>
+    <sheet name="oms_dealer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -67,16 +73,241 @@
   </si>
   <si>
     <t>create_date</t>
+  </si>
+  <si>
+    <t>数字化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ms</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rm1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DealerCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DealerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>OrgCretificationNo</t>
+  </si>
+  <si>
+    <t>LegalRepTel</t>
+  </si>
+  <si>
+    <t>LegalRepIDNum</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>PersonDealerTel</t>
+  </si>
+  <si>
+    <t>PersonDealerIDNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonDealerName</t>
+  </si>
+  <si>
+    <t>PUBGO001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBGO028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PUBGO0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PUBGO004(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PUBGO004(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PUBGO0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBGO022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PUBGO029</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PUBGO030</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,75 +330,458 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_dealer.xlsx
+++ b/documents/digital/表结构说明/oms_dealer.xlsx
@@ -9,54 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="oms_dealer" sheetId="1" r:id="rId1"/>
+    <sheet name="相关sql" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>dealer_number</t>
-  </si>
-  <si>
     <t>dealer_type</t>
   </si>
   <si>
-    <t>person_dealer_name</t>
-  </si>
-  <si>
-    <t>person_dealer_tel</t>
-  </si>
-  <si>
-    <t>person_dealer_idnum</t>
-  </si>
-  <si>
     <t>person_contact_add</t>
   </si>
   <si>
-    <t>company_name</t>
-  </si>
-  <si>
     <t>province_id</t>
   </si>
   <si>
     <t>city_id</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>post_code</t>
-  </si>
-  <si>
     <t>org_cretification_no</t>
   </si>
   <si>
@@ -64,9 +44,6 @@
   </si>
   <si>
     <t>legal_repid_num</t>
-  </si>
-  <si>
-    <t>tele_phone</t>
   </si>
   <si>
     <t>is_del</t>
@@ -161,10 +138,6 @@
   </si>
   <si>
     <t>PUBGO001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBGO028</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -269,8 +242,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>PUBGO029</t>
+    <t>TB_PUBGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealer_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person_dealer_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person_dealer_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person_dealer_idnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBGO029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBGO030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tele_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT PUBGO_ID,PUBGO001 AS dealer_number,PUBGO004 as person_dealer_name,PUBGO013 as person_dealer_tel,PUBGO022 as person_dealer_idnum,PUBGO004 as company_name,PUBGO029 as address,PUBGO030 as post_code  ,PUBGO013 as tele_phone from TB_PUBGO</t>
     </r>
     <r>
       <rPr>
@@ -278,7 +295,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>PUBGO030</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要判断是客户还是商户</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,9 +356,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -616,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -629,7 +657,8 @@
     <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="27.42578125" customWidth="1"/>
     <col min="16" max="16" width="14.140625" customWidth="1"/>
     <col min="17" max="17" width="21.85546875" customWidth="1"/>
@@ -638,145 +667,148 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="Q3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="R3" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -784,4 +816,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_dealer.xlsx
+++ b/documents/digital/表结构说明/oms_dealer.xlsx
@@ -286,26 +286,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>SELECT PUBGO_ID,PUBGO001 AS dealer_number,PUBGO004 as person_dealer_name,PUBGO013 as person_dealer_tel,PUBGO022 as person_dealer_idnum,PUBGO004 as company_name,PUBGO029 as address,PUBGO030 as post_code  ,PUBGO013 as tele_phone from TB_PUBGO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要判断是客户还是商户</t>
-    </r>
+    <t xml:space="preserve">SELECT
+PUBGO_ID id_uuid,
+PUBGO001 dealer_number,
+--dealer_type
+PUBGO004 person_dealer_name,
+PUBGO017 person_dealer_tel,
+PUBGO022 person_dealer_idnum,
+PUBGO031 person_contact_add,
+PUBGO004 company_name,
+--province_id
+--city_id
+PUBGO029 address,
+PUBGO030 post_code,
+--org_cretification_no
+PUBGO013 legal_rep_tel,
+PUBGO012 legal_repid_num,
+PUBGO013 tele_phone
+from TB_PUBGO
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +360,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
